--- a/数据/mercado_images.xlsx
+++ b/数据/mercado_images.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,7 +524,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -534,62 +534,62 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>混色</t>
+          <t>银色</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>000</t>
+          <t>FZ08-10MM</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\SKU\带数量\000.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\银色\FZ08-10mm.jpg</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\1.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\2.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\3.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\4.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\5.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\6.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\买家秀.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\尺寸图.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -612,62 +612,62 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>湖蓝AB彩</t>
+          <t>银色</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>FZ08-12MM</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\SKU\带数量\001.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\银色\FZ08-12mm.jpg</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\1.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\2.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\3.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\4.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\5.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\6.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\买家秀.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\尺寸图.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
         </is>
       </c>
     </row>
@@ -680,7 +680,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -690,62 +690,62 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>深蓝AB彩</t>
+          <t>银色</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>520</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>FZ08-3MM</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\SKU\带数量\002.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\银色\FZ08-3mm.jpg</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\1.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\2.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\3.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\4.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\5.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\6.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\买家秀.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\尺寸图.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
         </is>
       </c>
     </row>
@@ -768,62 +768,62 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>孔绿AB彩</t>
+          <t>银色</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>180</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>003</t>
+          <t>FZ08-4MM</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\SKU\带数量\003.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\银色\FZ08-4mm.jpg</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\1.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\2.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\3.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\4.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\5.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\6.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\买家秀.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\尺寸图.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -846,62 +846,62 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>银香槟AB彩</t>
+          <t>银色</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>180</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>FZ08-5MM</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\SKU\带数量\005.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\银色\FZ08-5mm.jpg</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\1.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\2.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\3.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\4.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\5.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\6.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\买家秀.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\尺寸图.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -924,62 +924,62 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>玫红AB彩</t>
+          <t>银色</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>FZ08-6MM</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\SKU\带数量\006.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\银色\FZ08-6mm.jpg</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\1.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\2.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\3.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\4.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\5.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\6.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\买家秀.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\尺寸图.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
         </is>
       </c>
     </row>
@@ -992,7 +992,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1002,62 +1002,62 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>大红AB彩</t>
+          <t>银色</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>110</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>007</t>
+          <t>FZ08-7MM</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\SKU\带数量\007.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\银色\FZ08-7mm.jpg</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\1.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\2.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\3.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\4.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\5.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\6.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\买家秀.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\尺寸图.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
         </is>
       </c>
     </row>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>透明灰</t>
+          <t>银色</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1090,52 +1090,52 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>008</t>
+          <t>FZ08-8MM</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\SKU\带数量\008.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\银色\FZ08-8mm.jpg</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\1.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\2.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\3.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\4.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\5.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\6.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\买家秀.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\尺寸图.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1158,62 +1158,62 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>中琥AB彩</t>
+          <t>金色</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>010</t>
+          <t>FZ07-10MM</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\SKU\带数量\010.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\金色\FZ07-10mm.jpg</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\1.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\2.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\3.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\4.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\5.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\6.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\买家秀.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\尺寸图.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
         </is>
       </c>
     </row>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1236,62 +1236,62 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>中琥AB彩</t>
+          <t>金色</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>011</t>
+          <t>FZ07-12MM</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\SKU\带数量\011.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\金色\FZ07-12mm.jpg</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\1.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\2.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\3.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\4.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\5.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\6.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\买家秀.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\尺寸图.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1314,62 +1314,62 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>浅蓝AB彩</t>
+          <t>金色</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>520</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>012</t>
+          <t>FZ07-3MM</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\SKU\带数量\012.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\金色\FZ07-3mm.jpg</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\1.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\2.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\3.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\4.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\5.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\6.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\买家秀.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\尺寸图.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
         </is>
       </c>
     </row>
@@ -1392,62 +1392,62 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>深红AB彩</t>
+          <t>金色</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>180</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>013</t>
+          <t>FZ07-4MM</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\SKU\带数量\013.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\金色\FZ07-4mm.jpg</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\1.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\2.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\3.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\4.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\5.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\6.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\买家秀.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\尺寸图.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1470,62 +1470,62 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>粉色AB彩</t>
+          <t>金色</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>180</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>014</t>
+          <t>FZ07-5MM</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\SKU\带数量\014.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\金色\FZ07-5mm.jpg</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\1.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\2.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\3.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\4.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\5.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\6.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\买家秀.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\尺寸图.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1548,62 +1548,62 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>白色AB彩</t>
+          <t>金色</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>015</t>
+          <t>FZ07-6MM</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\SKU\带数量\015.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\金色\FZ07-6mm.jpg</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\1.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\2.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\3.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\4.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\5.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\6.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\买家秀.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\尺寸图.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
         </is>
       </c>
     </row>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1626,62 +1626,62 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>半银</t>
+          <t>金色</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>110</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>016</t>
+          <t>FZ07-7MM</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\SKU\带数量\016.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\金色\FZ07-7mm.jpg</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\1.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\2.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\3.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\4.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\5.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\6.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\买家秀.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\尺寸图.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
         </is>
       </c>
     </row>
@@ -1694,72 +1694,2568 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>金色</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>FZ07-8MM</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\金色\FZ07-8mm.jpg</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>银色</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>FZ010-10MM</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\白K\FZ010-10mm.jpg</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>银色</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>FZ010-12MM</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\白K\FZ010-12mm.jpg</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>银色</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>FZ010-6MM</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\白K\FZ010-6mm.jpg</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>银色</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>FZ010-7MM</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\白K\FZ010-7mm.jpg</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>银色</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>FZ010-8MM</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\白K\FZ010-8mm.jpg</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>银色</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>FZ10-3MM</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\白K\FZ10-3mm.jpg</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>黑色</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>银色</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>FZ10-4MM</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\白K\FZ10-4mm.jpg</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>银色</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>FZ10-5MM</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\白K\FZ10-5mm.jpg</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>混色</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>FZ298-10MM</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\混色\FZ298-10mm.jpg</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>混色</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>FZ298-12MM</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\混色\FZ298-12mm.jpg</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>混色</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>FZ298-3MM</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\混色\FZ298-3mm.jpg</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>混色</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>FZ298-4MM</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\混色\FZ298-4mm.jpg</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>混色</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>FZ298-5MM</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\混色\FZ298-5mm.jpg</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>混色</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>FZ298-6MM</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\混色\FZ298-6mm.jpg</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>混色</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>FZ298-7MM</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\混色\FZ298-7mm.jpg</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>混色</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>FZ298-8MM</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\混色\FZ298-8mm.jpg</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>枪黑色</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>FZ297-10MM</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\枪黑\FZ297-10mm.jpg</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>枪黑色</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>FZ297-12MM</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\枪黑\FZ297-12mm.jpg</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>枪黑色</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>FZ297-3MM</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\枪黑\FZ297-3mm.jpg</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>枪黑色</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>FZ297-4MM</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\枪黑\FZ297-4mm.jpg</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>枪黑色</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>FZ297-5MM</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\枪黑\FZ297-5mm.jpg</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>枪黑色</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>FZ297-6MM</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\枪黑\FZ297-6mm.jpg</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>枪黑色</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>FZ297-7MM</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\枪黑\FZ297-7mm.jpg</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>枪黑色</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>FZ297-8MM</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\枪黑\FZ297-8mm.jpg</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>暗金色</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>FZ09-10MM</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\KC色\FZ09-10mm.jpg</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>暗金色</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>FZ09-12MM</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\KC色\FZ09-12mm.jpg</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>暗金色</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>FZ09-3MM</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\KC色\FZ09-3mm.jpg</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>暗金色</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>FZ09-4MM</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\KC色\FZ09-4mm.jpg</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>暗金色</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>FZ09-5MM</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\KC色\FZ09-5mm.jpg</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>暗金色</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>FZ09-6MM</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\KC色\FZ09-6mm.jpg</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>暗金色</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>FZ09-7MM</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\KC色\FZ09-7mm.jpg</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>暗金色</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>017</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\SKU\带数量\017.jpg</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\1.jpg</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\2.jpg</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\3.jpg</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\4.jpg</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\5.jpg</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\6.jpg</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\买家秀.jpg</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\水晶玻璃材质\风格1\000-合集\尺寸图.jpg</t>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>FZ09-8MM</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\SKU\带数量\KC色\FZ09-8mm.jpg</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\1.jpg</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\2.jpg</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\219b7422aef7d7f2c23b94076376df14.jpg</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\3.jpg</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\4.jpg</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\5.jpg</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\6.jpg</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\合金-金属铁\风格1\合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298\7.jpg</t>
         </is>
       </c>
     </row>
